--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_6_Heat.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_6_Heat.xlsx
@@ -571,7 +571,7 @@
         <v>44.5913048</v>
       </c>
       <c r="F2">
-        <v>33.44347859999999</v>
+        <v>33.4434786</v>
       </c>
       <c r="G2">
         <v>22.2956524</v>
@@ -603,19 +603,19 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>652.1899942468616</v>
+        <v>652.1899942468625</v>
       </c>
       <c r="E3">
         <v>335.9477159999999</v>
       </c>
       <c r="F3">
-        <v>348.5502410000002</v>
+        <v>344.627368095374</v>
       </c>
       <c r="G3">
         <v>167.973858</v>
       </c>
       <c r="H3">
-        <v>83.98692899999999</v>
+        <v>83.986929</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>199.0942010420815</v>
+        <v>222.5297787883324</v>
       </c>
       <c r="E4">
-        <v>140.55525216</v>
+        <v>145.0553980992303</v>
       </c>
       <c r="F4">
         <v>105.41643912</v>
@@ -679,19 +679,19 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>96.09070657851686</v>
+        <v>86.40870865483217</v>
       </c>
       <c r="E5">
-        <v>49.316537504</v>
+        <v>49.3165375039995</v>
       </c>
       <c r="F5">
-        <v>60.86219628233111</v>
+        <v>65.50183609278724</v>
       </c>
       <c r="G5">
         <v>24.658268752</v>
       </c>
       <c r="H5">
-        <v>12.32913437599999</v>
+        <v>12.329134376</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>2.7686268</v>
       </c>
       <c r="H6">
-        <v>1.384313399999999</v>
+        <v>1.3843134</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.59294737927316</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>152.4428022168103</v>
+        <v>176.5428661106895</v>
       </c>
       <c r="L7">
-        <v>152.4428022168103</v>
+        <v>176.5428661106895</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -834,13 +834,13 @@
         <v>127.52628525</v>
       </c>
       <c r="E9">
-        <v>144.587625</v>
+        <v>140.6647520953742</v>
       </c>
       <c r="F9">
         <v>115.6701</v>
       </c>
       <c r="G9">
-        <v>74.12799086296269</v>
+        <v>71.30799427206604</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>50.52185445944078</v>
+        <v>47.7301356</v>
       </c>
       <c r="E10">
         <v>29.3307636</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>21.64632</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>21.64632</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>19.6877848</v>
       </c>
       <c r="I11">
-        <v>9.843892399999996</v>
+        <v>9.843892399999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -951,16 +951,16 @@
         <v>2.083375</v>
       </c>
       <c r="F12">
-        <v>1.6667</v>
+        <v>1.917696684748897</v>
       </c>
       <c r="G12">
-        <v>1.250025</v>
+        <v>1.39652793</v>
       </c>
       <c r="H12">
         <v>1.266692</v>
       </c>
       <c r="I12">
-        <v>0.633346</v>
+        <v>0.606745468</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0.0188512775</v>
       </c>
       <c r="I13">
-        <v>0.004583333333333335</v>
+        <v>0.009425638749999996</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1021,22 +1021,22 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>92.38326512500001</v>
+        <v>92.38326512499998</v>
       </c>
       <c r="E14">
-        <v>47.89469519999999</v>
+        <v>47.8946952</v>
       </c>
       <c r="F14">
-        <v>41.81252140000002</v>
+        <v>41.8125214</v>
       </c>
       <c r="G14">
         <v>67.90169986687499</v>
       </c>
       <c r="H14">
-        <v>92.38326512500001</v>
+        <v>65.53121097315496</v>
       </c>
       <c r="I14">
-        <v>24.481565258125</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>288.1587205031386</v>
+        <v>288.1587205031377</v>
       </c>
       <c r="E15">
-        <v>346.0936589999999</v>
+        <v>350.0165319046259</v>
       </c>
       <c r="F15">
-        <v>346.093659</v>
+        <v>350.0165319046259</v>
       </c>
       <c r="G15">
-        <v>346.093659</v>
+        <v>350.0165319046259</v>
       </c>
       <c r="H15">
-        <v>327.4308743656041</v>
+        <v>350.0165319046259</v>
       </c>
       <c r="I15">
-        <v>334.7016579185841</v>
+        <v>40.75047531827484</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1097,31 +1097,31 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>524.615944498477</v>
+        <v>503.9720856116672</v>
       </c>
       <c r="E16">
-        <v>446.590984240001</v>
+        <v>442.0908383007696</v>
       </c>
       <c r="F16">
         <v>362.7945608799999</v>
       </c>
       <c r="G16">
-        <v>524.6159444984771</v>
+        <v>503.9720856116672</v>
       </c>
       <c r="H16">
-        <v>524.6159444984771</v>
+        <v>503.9720856116672</v>
       </c>
       <c r="I16">
-        <v>524.6159444984771</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>61.36574393627612</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>217.2918958340606</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>217.2918958340606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1135,25 +1135,25 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>371.374939021483</v>
+        <v>381.0569369451678</v>
       </c>
       <c r="E17">
-        <v>590.4160004959998</v>
+        <v>590.4160004960012</v>
       </c>
       <c r="F17">
-        <v>703.193234117669</v>
+        <v>698.5535943072136</v>
       </c>
       <c r="G17">
-        <v>703.1932341176691</v>
+        <v>698.5535943072136</v>
       </c>
       <c r="H17">
-        <v>703.193234117669</v>
+        <v>698.5535943072135</v>
       </c>
       <c r="I17">
-        <v>703.1932341176691</v>
+        <v>698.5535943072134</v>
       </c>
       <c r="J17">
-        <v>331.818295096186</v>
+        <v>317.4966573620458</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>21.738383</v>
       </c>
       <c r="E18">
-        <v>33.80837140000001</v>
+        <v>33.8083714</v>
       </c>
       <c r="F18">
-        <v>43.3363598</v>
+        <v>43.08536311525111</v>
       </c>
       <c r="G18">
-        <v>43.46179994843985</v>
+        <v>43.08536311525111</v>
       </c>
       <c r="H18">
-        <v>164.5242528890922</v>
+        <v>157.2084187068397</v>
       </c>
       <c r="I18">
-        <v>176.8606331890524</v>
+        <v>208.5281324746323</v>
       </c>
       <c r="J18">
-        <v>265.8496474021255</v>
+        <v>265.4681101527752</v>
       </c>
       <c r="K18">
-        <v>363.1165607386121</v>
+        <v>368.7019568829311</v>
       </c>
       <c r="L18">
-        <v>363.1165607386121</v>
+        <v>368.7019568829311</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1211,13 +1211,13 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>0.1494461674999999</v>
+        <v>0.1494461675</v>
       </c>
       <c r="E19">
         <v>1.01487180625</v>
       </c>
       <c r="F19">
-        <v>2.806297444999998</v>
+        <v>2.806297444999999</v>
       </c>
       <c r="G19">
         <v>2.806297444999999</v>
